--- a/ResultadoEleicoesDistritos/AVEIRO_ÁGUEDA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_ÁGUEDA.xlsx
@@ -597,64 +597,64 @@
         <v>12580</v>
       </c>
       <c r="H2" t="n">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="I2" t="n">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="J2" t="n">
-        <v>5201</v>
+        <v>5242</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>1430</v>
+        <v>1410</v>
       </c>
       <c r="M2" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N2" t="n">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R2" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S2" t="n">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="T2" t="n">
-        <v>893</v>
+        <v>937</v>
       </c>
       <c r="U2" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="V2" t="n">
-        <v>8065</v>
+        <v>8073</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>8004</v>
+        <v>7974</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
